--- a/PL/サウンドリスト.xlsx
+++ b/PL/サウンドリスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="作成履歴" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BGM!$A$10:$O$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$10:$O$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$10:$O$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">作成履歴!$A$1:$D$30</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="151">
   <si>
     <t>■ロブスターゲーム_サウンドリスト</t>
     <phoneticPr fontId="1"/>
@@ -350,6 +350,947 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面で再生</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッション表示画面</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッション表示時</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッションが表示されている状態で再生</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘シーン</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘シーンで再生（一番使うBGM）</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技演出時</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッサツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺演出時に再生</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘中1</t>
+    <rPh sb="0" eb="3">
+      <t>セントウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘中2</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘シーン（残り時間少し）</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘シーン（残り時間少し）で再生</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファンファーレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト演出時</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>決定音</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定キー押下時</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定キーを押したときに再生</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート音</t>
+    <rPh sb="4" eb="5">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート演出</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートの文字とともに再生</t>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力1</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力時</t>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力が成功した際に再生</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力2</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力3</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力4</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力5</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力が成功するごとに音が上がってくるイメージ（パズドラ）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ヒット時（パンチ）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ヒット時（キック）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ヒット時（ビーム）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチ攻撃がヒットした際に再生</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キック攻撃がヒットした際に再生</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーム攻撃がヒットした際に再生</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>打撃ヒット音1</t>
+    <rPh sb="0" eb="2">
+      <t>ダゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打撃ヒット音2</t>
+    <rPh sb="0" eb="2">
+      <t>ダゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打撃ヒット音3</t>
+    <rPh sb="0" eb="2">
+      <t>ダゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃音1</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃音2</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃音3</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃音（パンチ）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃音（キック）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃音（ビーム）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチをする際に再生</t>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キックをする際に再生</t>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ビームをする際に再生</t>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力時（必殺連打）</t>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒッサツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力時に再生（チャージ音）</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>爆発音</t>
+    <rPh sb="0" eb="3">
+      <t>バクハツオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵ユニットを倒したとき</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が爆発する際に再生</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>あせり音</t>
+    <rPh sb="3" eb="4">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あせり演出時</t>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あせり演出でヒーローが汗をかいてる際に再生</t>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アセ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>入力成功</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力成功時</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技全体の入力に成功した際に再生（コマンド入力よりも派手な音）</t>
+    <rPh sb="0" eb="1">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハデ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺音</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッサツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺攻撃時に再生</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>爆発音（必殺）</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒッサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵ユニットを倒したとき（必殺時）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒッサツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアップ音</t>
+    <rPh sb="6" eb="7">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアップ時</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアップ時に再生</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト音（カウントアップ）</t>
+    <rPh sb="4" eb="5">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>決めポーズ音</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト音（リザルト表示）</t>
+    <rPh sb="4" eb="5">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトで登場する文字に合わせて再生（ドン！）といった形</t>
+    <rPh sb="5" eb="7">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトでのスコアカウントアップ時に再生</t>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒーローが決めポーズをする瞬間に再生</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功ファンファーレ</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗ファンファーレ</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -494,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,20 +1490,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -600,60 +1550,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -668,71 +1567,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1056,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1268,18 +2102,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.375" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
@@ -1289,7 +2123,7 @@
     <col min="12" max="12" width="35.5" customWidth="1"/>
     <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -1326,10 +2160,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="17">
-        <f>COUNTA(B11:B100)-COUNT(O11:O100)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="18" t="s">
+        <f>COUNTA(B11:B92)-COUNT(O11:O92)</f>
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="5" t="s">
@@ -1388,22 +2222,40 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="19" t="str">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="18" t="str">
         <f>F11&amp;G11&amp;H11</f>
-        <v/>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="20" t="str">
+        <v>bgm_01</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="19" t="str">
         <f>I11&amp;J11</f>
-        <v/>
+        <v>bgm_01.wav</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
@@ -1411,22 +2263,40 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="19" t="str">
-        <f t="shared" ref="I12:I26" si="0">F12&amp;G12&amp;H12</f>
-        <v/>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="20" t="str">
-        <f t="shared" ref="K12:K26" si="1">I12&amp;J12</f>
-        <v/>
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="18" t="str">
+        <f t="shared" ref="I12:I18" si="0">F12&amp;G12&amp;H12</f>
+        <v>bgm_02</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="19" t="str">
+        <f t="shared" ref="K12:K18" si="1">I12&amp;J12</f>
+        <v>bgm_02.wav</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
@@ -1434,22 +2304,40 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="19" t="str">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="20" t="str">
+        <v>bgm_03</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="19" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>bgm_03.wav</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
@@ -1457,22 +2345,40 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="19" t="str">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="20" t="str">
+        <v>bgm_04</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="19" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>bgm_04.wav</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="4"/>
@@ -1480,22 +2386,38 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="19" t="str">
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="20" t="str">
+        <v>bgm_05</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="19" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>bgm_05.wav</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
@@ -1503,22 +2425,38 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="19" t="str">
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="20" t="str">
+        <v>bgm_06</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="19" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>bgm_06.wav</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
@@ -1526,22 +2464,38 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="19" t="str">
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="20" t="str">
+        <v>bgm_07</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="19" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>bgm_07.wav</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
@@ -1556,13 +2510,13 @@
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="19" t="str">
+      <c r="H18" s="21"/>
+      <c r="I18" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="20" t="str">
+      <c r="K18" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1571,200 +2525,16 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="3"/>
-    </row>
   </sheetData>
   <autoFilter ref="A10:O10"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A11:O26">
-    <cfRule type="expression" dxfId="17" priority="2">
+  <conditionalFormatting sqref="A11:O18">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$O11=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:N26">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="済">
+  <conditionalFormatting sqref="M11:N18">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="済">
       <formula>NOT(ISERROR(SEARCH("済",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1775,25 +2545,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.375" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
     <col min="8" max="8" width="9" style="14"/>
     <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5" customWidth="1"/>
+    <col min="12" max="12" width="51.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" customWidth="1"/>
   </cols>
@@ -1830,10 +2600,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="17">
-        <f>COUNTA(B11:B100)-COUNT(O11:O100)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="18" t="s">
+        <f>COUNTA(B11:B107)-COUNT(O11:O107)</f>
+        <v>22</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="5" t="s">
@@ -1892,22 +2662,38 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="19" t="str">
+      <c r="F11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="18" t="str">
         <f>F11&amp;G11&amp;H11</f>
-        <v/>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="20" t="str">
+        <v>se_01</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="19" t="str">
         <f>I11&amp;J11</f>
-        <v/>
+        <v>se_01.wav</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
@@ -1915,22 +2701,38 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="19" t="str">
-        <f t="shared" ref="I12:I26" si="0">F12&amp;G12&amp;H12</f>
-        <v/>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="20" t="str">
-        <f t="shared" ref="K12:K26" si="1">I12&amp;J12</f>
-        <v/>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="18" t="str">
+        <f>F12&amp;G12&amp;H12</f>
+        <v>se_02</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="19" t="str">
+        <f>I12&amp;J12</f>
+        <v>se_02.wav</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
@@ -1938,114 +2740,202 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="18" t="str">
+        <f>F13&amp;G13&amp;H13</f>
+        <v>se_03</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="19" t="str">
+        <f>I13&amp;J13</f>
+        <v>se_03.wav</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="18" t="str">
+        <f>F14&amp;G14&amp;H14</f>
+        <v>se_04</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="19" t="str">
+        <f>I14&amp;J14</f>
+        <v>se_04.wav</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="18" t="str">
+        <f>F15&amp;G15&amp;H15</f>
+        <v>se_05</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="19" t="str">
+        <f>I15&amp;J15</f>
+        <v>se_05.wav</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="18" t="str">
+        <f>F16&amp;G16&amp;H16</f>
+        <v>se_06</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="19" t="str">
+        <f>I16&amp;J16</f>
+        <v>se_06.wav</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="18" t="str">
+        <f>F17&amp;G17&amp;H17</f>
+        <v>se_07</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="19" t="str">
+        <f>I17&amp;J17</f>
+        <v>se_07.wav</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
@@ -2053,22 +2943,38 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="18" t="str">
+        <f>F18&amp;G18&amp;H18</f>
+        <v>se_08</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="19" t="str">
+        <f>I18&amp;J18</f>
+        <v>se_08.wav</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
@@ -2076,22 +2982,38 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="18" t="str">
+        <f>F19&amp;G19&amp;H19</f>
+        <v>se_09</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="19" t="str">
+        <f>I19&amp;J19</f>
+        <v>se_09.wav</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
@@ -2099,22 +3021,38 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="18" t="str">
+        <f>F20&amp;G20&amp;H20</f>
+        <v>se_10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="19" t="str">
+        <f>I20&amp;J20</f>
+        <v>se_10.wav</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
@@ -2122,22 +3060,38 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="18" t="str">
+        <f>F21&amp;G21&amp;H21</f>
+        <v>se_11</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="19" t="str">
+        <f>I21&amp;J21</f>
+        <v>se_11.wav</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
@@ -2145,22 +3099,38 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="18" t="str">
+        <f>F22&amp;G22&amp;H22</f>
+        <v>se_12</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="19" t="str">
+        <f>I22&amp;J22</f>
+        <v>se_12.wav</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="4"/>
@@ -2168,22 +3138,38 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="18" t="str">
+        <f>F23&amp;G23&amp;H23</f>
+        <v>se_13</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="19" t="str">
+        <f>I23&amp;J23</f>
+        <v>se_13.wav</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
@@ -2191,22 +3177,38 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="18" t="str">
+        <f>F24&amp;G24&amp;H24</f>
+        <v>se_14</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="19" t="str">
+        <f>I24&amp;J24</f>
+        <v>se_14.wav</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
@@ -2214,22 +3216,38 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="18" t="str">
+        <f t="shared" ref="I25:I31" si="0">F25&amp;G25&amp;H25</f>
+        <v>se_15</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="19" t="str">
+        <f>I25&amp;J25</f>
+        <v>se_15.wav</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="4"/>
@@ -2237,22 +3255,38 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="19" t="str">
+      <c r="F26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>se_16</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="19" t="str">
+        <f>I26&amp;J26</f>
+        <v>se_16.wav</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
@@ -2260,23 +3294,269 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="I27" s="9"/>
+      <c r="A27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>se_17</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>se_18</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>se_19</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>se_21</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="19" t="str">
+        <f>I30&amp;J30</f>
+        <v>se_21.wav</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>se_22</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="18" t="str">
+        <f t="shared" ref="I32" si="1">F32&amp;G32&amp;H32</f>
+        <v>se_23</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="19" t="str">
+        <f>I32&amp;J32</f>
+        <v>se_23.wav</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="18" t="str">
+        <f>F33&amp;G33&amp;H33</f>
+        <v/>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="19" t="str">
+        <f>I33&amp;J33</f>
+        <v/>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I34" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:O10"/>
+  <autoFilter ref="A10:O33">
+    <sortState ref="A11:O29">
+      <sortCondition ref="H10:H29"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A11:L26 O11:O26">
-    <cfRule type="expression" dxfId="21" priority="5">
+  <conditionalFormatting sqref="A11:O33">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$O11=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:N26">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$O11=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:N26">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="済">
+  <conditionalFormatting sqref="M11:N33">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="済">
       <formula>NOT(ISERROR(SEARCH("済",M11)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PL/サウンドリスト.xlsx
+++ b/PL/サウンドリスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="作成履歴" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="153">
   <si>
     <t>■ロブスターゲーム_サウンドリスト</t>
     <phoneticPr fontId="1"/>
@@ -1210,15 +1210,6 @@
     <t>19</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>決めポーズ音</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
@@ -1291,6 +1282,38 @@
     <t>失敗ファンファーレ</t>
     <rPh sb="0" eb="2">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容洗い出して記入</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1406,7 +1429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1429,13 +1452,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,11 +1559,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1539,48 +1603,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1890,7 +1912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1962,16 +1986,32 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="8">
+        <v>42380</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="8">
+        <v>42380</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
@@ -2435,7 +2475,7 @@
         <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
@@ -2474,7 +2514,7 @@
         <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
@@ -2529,12 +2569,12 @@
   <autoFilter ref="A10:O10"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A11:O18">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$O11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:N18">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="済">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="済">
       <formula>NOT(ISERROR(SEARCH("済",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2547,9 +2587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2590,16 +2630,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="25">
         <f>COUNTA(B11:B107)-COUNT(O11:O107)</f>
         <v>22</v>
       </c>
@@ -2620,7 +2660,7 @@
       <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -2685,14 +2725,14 @@
         <v>44</v>
       </c>
       <c r="I11" s="18" t="str">
-        <f>F11&amp;G11&amp;H11</f>
+        <f t="shared" ref="I11:I24" si="0">F11&amp;G11&amp;H11</f>
         <v>se_01</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K11" s="19" t="str">
-        <f>I11&amp;J11</f>
+        <f t="shared" ref="K11:K32" si="1">I11&amp;J11</f>
         <v>se_01.wav</v>
       </c>
       <c r="L11" s="3"/>
@@ -2724,14 +2764,14 @@
         <v>53</v>
       </c>
       <c r="I12" s="18" t="str">
-        <f>F12&amp;G12&amp;H12</f>
+        <f t="shared" si="0"/>
         <v>se_02</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K12" s="19" t="str">
-        <f>I12&amp;J12</f>
+        <f t="shared" si="1"/>
         <v>se_02.wav</v>
       </c>
       <c r="L12" s="3"/>
@@ -2763,14 +2803,14 @@
         <v>58</v>
       </c>
       <c r="I13" s="18" t="str">
-        <f>F13&amp;G13&amp;H13</f>
+        <f t="shared" si="0"/>
         <v>se_03</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="19" t="str">
-        <f>I13&amp;J13</f>
+        <f t="shared" si="1"/>
         <v>se_03.wav</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -2804,14 +2844,14 @@
         <v>63</v>
       </c>
       <c r="I14" s="18" t="str">
-        <f>F14&amp;G14&amp;H14</f>
+        <f t="shared" si="0"/>
         <v>se_04</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K14" s="19" t="str">
-        <f>I14&amp;J14</f>
+        <f t="shared" si="1"/>
         <v>se_04.wav</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -2845,14 +2885,14 @@
         <v>64</v>
       </c>
       <c r="I15" s="18" t="str">
-        <f>F15&amp;G15&amp;H15</f>
+        <f t="shared" si="0"/>
         <v>se_05</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K15" s="19" t="str">
-        <f>I15&amp;J15</f>
+        <f t="shared" si="1"/>
         <v>se_05.wav</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -2886,14 +2926,14 @@
         <v>72</v>
       </c>
       <c r="I16" s="18" t="str">
-        <f>F16&amp;G16&amp;H16</f>
+        <f t="shared" si="0"/>
         <v>se_06</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K16" s="19" t="str">
-        <f>I16&amp;J16</f>
+        <f t="shared" si="1"/>
         <v>se_06.wav</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -2927,14 +2967,14 @@
         <v>74</v>
       </c>
       <c r="I17" s="18" t="str">
-        <f>F17&amp;G17&amp;H17</f>
+        <f t="shared" si="0"/>
         <v>se_07</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K17" s="19" t="str">
-        <f>I17&amp;J17</f>
+        <f t="shared" si="1"/>
         <v>se_07.wav</v>
       </c>
       <c r="L17" s="3"/>
@@ -2966,14 +3006,14 @@
         <v>96</v>
       </c>
       <c r="I18" s="18" t="str">
-        <f>F18&amp;G18&amp;H18</f>
+        <f t="shared" si="0"/>
         <v>se_08</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K18" s="19" t="str">
-        <f>I18&amp;J18</f>
+        <f t="shared" si="1"/>
         <v>se_08.wav</v>
       </c>
       <c r="L18" s="3"/>
@@ -3005,14 +3045,14 @@
         <v>97</v>
       </c>
       <c r="I19" s="18" t="str">
-        <f>F19&amp;G19&amp;H19</f>
+        <f t="shared" si="0"/>
         <v>se_09</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K19" s="19" t="str">
-        <f>I19&amp;J19</f>
+        <f t="shared" si="1"/>
         <v>se_09.wav</v>
       </c>
       <c r="L19" s="3"/>
@@ -3044,14 +3084,14 @@
         <v>109</v>
       </c>
       <c r="I20" s="18" t="str">
-        <f>F20&amp;G20&amp;H20</f>
+        <f t="shared" si="0"/>
         <v>se_10</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K20" s="19" t="str">
-        <f>I20&amp;J20</f>
+        <f t="shared" si="1"/>
         <v>se_10.wav</v>
       </c>
       <c r="L20" s="3"/>
@@ -3083,14 +3123,14 @@
         <v>110</v>
       </c>
       <c r="I21" s="18" t="str">
-        <f>F21&amp;G21&amp;H21</f>
+        <f t="shared" si="0"/>
         <v>se_11</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K21" s="19" t="str">
-        <f>I21&amp;J21</f>
+        <f t="shared" si="1"/>
         <v>se_11.wav</v>
       </c>
       <c r="L21" s="3"/>
@@ -3122,14 +3162,14 @@
         <v>111</v>
       </c>
       <c r="I22" s="18" t="str">
-        <f>F22&amp;G22&amp;H22</f>
+        <f t="shared" si="0"/>
         <v>se_12</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="19" t="str">
-        <f>I22&amp;J22</f>
+        <f t="shared" si="1"/>
         <v>se_12.wav</v>
       </c>
       <c r="L22" s="3"/>
@@ -3161,14 +3201,14 @@
         <v>115</v>
       </c>
       <c r="I23" s="18" t="str">
-        <f>F23&amp;G23&amp;H23</f>
+        <f t="shared" si="0"/>
         <v>se_13</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="19" t="str">
-        <f>I23&amp;J23</f>
+        <f t="shared" si="1"/>
         <v>se_13.wav</v>
       </c>
       <c r="L23" s="3"/>
@@ -3200,14 +3240,14 @@
         <v>119</v>
       </c>
       <c r="I24" s="18" t="str">
-        <f>F24&amp;G24&amp;H24</f>
+        <f t="shared" si="0"/>
         <v>se_14</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K24" s="19" t="str">
-        <f>I24&amp;J24</f>
+        <f t="shared" si="1"/>
         <v>se_14.wav</v>
       </c>
       <c r="L24" s="3"/>
@@ -3239,14 +3279,14 @@
         <v>123</v>
       </c>
       <c r="I25" s="18" t="str">
-        <f t="shared" ref="I25:I31" si="0">F25&amp;G25&amp;H25</f>
+        <f t="shared" ref="I25:I31" si="2">F25&amp;G25&amp;H25</f>
         <v>se_15</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K25" s="19" t="str">
-        <f>I25&amp;J25</f>
+        <f t="shared" si="1"/>
         <v>se_15.wav</v>
       </c>
       <c r="L25" s="3"/>
@@ -3278,14 +3318,14 @@
         <v>127</v>
       </c>
       <c r="I26" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>se_16</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K26" s="19" t="str">
-        <f>I26&amp;J26</f>
+        <f t="shared" si="1"/>
         <v>se_16.wav</v>
       </c>
       <c r="L26" s="3"/>
@@ -3298,13 +3338,13 @@
         <v>47</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
@@ -3317,13 +3357,16 @@
         <v>131</v>
       </c>
       <c r="I27" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>se_17</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="19"/>
+      <c r="K27" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>se_17.wav</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3340,7 +3383,7 @@
         <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>138</v>
@@ -3355,13 +3398,16 @@
         <v>139</v>
       </c>
       <c r="I28" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>se_18</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="19"/>
+      <c r="K28" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>se_18.wav</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -3372,13 +3418,13 @@
         <v>47</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3" t="s">
@@ -3391,13 +3437,16 @@
         <v>140</v>
       </c>
       <c r="I29" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>se_19</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="19"/>
+      <c r="K29" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>se_19.wav</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -3424,18 +3473,18 @@
         <v>43</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I30" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>se_21</v>
+        <f t="shared" si="2"/>
+        <v>se_20</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K30" s="19" t="str">
-        <f>I30&amp;J30</f>
-        <v>se_21.wav</v>
+        <f t="shared" si="1"/>
+        <v>se_20.wav</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
@@ -3463,16 +3512,19 @@
         <v>43</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I31" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>se_22</v>
+        <f t="shared" si="2"/>
+        <v>se_21</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="19"/>
+      <c r="K31" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>se_21.wav</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3499,18 +3551,18 @@
         <v>43</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I32" s="18" t="str">
-        <f t="shared" ref="I32" si="1">F32&amp;G32&amp;H32</f>
-        <v>se_23</v>
+        <f t="shared" ref="I32" si="3">F32&amp;G32&amp;H32</f>
+        <v>se_22</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K32" s="19" t="str">
-        <f>I32&amp;J32</f>
-        <v>se_23.wav</v>
+        <f t="shared" si="1"/>
+        <v>se_22.wav</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="4"/>
@@ -3551,12 +3603,12 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A11:O33">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$O11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:N33">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="済">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="済">
       <formula>NOT(ISERROR(SEARCH("済",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
